--- a/RPA.xlsx
+++ b/RPA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C2C7AD-1620-47F6-885A-386CE5A1E355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB9171A-6F43-4F97-A6F0-24E4AB98C8C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>new List(of String) from {"Germany", "Spain", "Japan", "Brazil", "India", "China"}</t>
   </si>
@@ -309,6 +309,10 @@
   </si>
   <si>
     <t>Select  dtResult.Rows.Add({ID.a, ID.b,   ))})).CopyToDataTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send Hotkey设置同时按键注意事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1564,6 +1568,50 @@
         <a:xfrm>
           <a:off x="4053840" y="28605480"/>
           <a:ext cx="3876190" cy="1219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>107744</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{512C2027-F984-4100-8942-3231EA9CD717}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="31470600"/>
+          <a:ext cx="9861344" cy="2537460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4234,10 +4282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G162"/>
+  <dimension ref="A1:G179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="U42" sqref="U42"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4368,6 +4416,11 @@
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G162" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -4382,7 +4435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9455544-15BA-4700-893E-7DEA906988C8}">
   <dimension ref="A3:A68"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
